--- a/IGA_practice/analysis/s_IGA/enk/データ整理/enk_1.xlsx
+++ b/IGA_practice/analysis/s_IGA/enk/データ整理/enk_1.xlsx
@@ -15,10 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="厳密解と比較" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Sheet1!$C$1:$C$1296</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet1!$D$1:$D$1296</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
